--- a/design/chitiet/menuBarKH.xlsx
+++ b/design/chitiet/menuBarKH.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Trang_bia" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="83">
   <si>
     <t xml:space="preserve">Posts and Telecommunications Institute of Technology
 </t>
@@ -288,13 +288,7 @@
     <t xml:space="preserve">1. Mục đích</t>
   </si>
   <si>
-    <t xml:space="preserve">- Dùng để thêm sản phảm </t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Người sử dụng nhập thôn tin sản phẩm </t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Sau khi nhấn thêm sản phảm, trường hợp phát sinh lỗi thì hiển thị thông báo lỗi, ngược lại di chuyển đến màn hình chính</t>
+    <t xml:space="preserve">- Dùng để chuyển trang trong quản lý </t>
   </si>
   <si>
     <t xml:space="preserve">2. Giới hạn hoạt động</t>
@@ -310,12 +304,6 @@
   </si>
   <si>
     <t xml:space="preserve">5. Không bao gồm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">addProduct</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Màn hình thêm sản phẩm</t>
   </si>
   <si>
     <t xml:space="preserve">6. Sơ đồ</t>
@@ -337,27 +325,6 @@
   </si>
   <si>
     <t xml:space="preserve">Ghi chú</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Table quản lý user</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Product </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Table danh sách sản phảm </t>
   </si>
   <si>
     <r>
@@ -506,7 +473,7 @@
     <numFmt numFmtId="168" formatCode="yyyy\年m\月d\日;@"/>
     <numFmt numFmtId="169" formatCode="yyyy/m/d;@"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -599,12 +566,6 @@
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="10.5"/>
@@ -1716,7 +1677,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1774,9 +1735,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>35640</xdr:colOff>
+      <xdr:colOff>34920</xdr:colOff>
       <xdr:row>133</xdr:row>
-      <xdr:rowOff>64080</xdr:rowOff>
+      <xdr:rowOff>63360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1790,7 +1751,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3453840" y="22755240"/>
-          <a:ext cx="675000" cy="969120"/>
+          <a:ext cx="674280" cy="968400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1804,134 +1765,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>130680</xdr:colOff>
-      <xdr:row>136</xdr:row>
-      <xdr:rowOff>164520</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>155520</xdr:colOff>
-      <xdr:row>140</xdr:row>
-      <xdr:rowOff>123840</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1" name="AutoShape 14"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2177280" y="24338880"/>
-          <a:ext cx="955080" cy="645120"/>
-        </a:xfrm>
-        <a:prstGeom prst="can">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 25000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" lIns="27360" rIns="27360" tIns="18360" bIns="18360" anchor="ctr" upright="1">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:p>
-          <a:pPr algn="ctr">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1000" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman"/>
-            </a:rPr>
-            <a:t>User</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1000" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>163800</xdr:colOff>
-      <xdr:row>133</xdr:row>
-      <xdr:rowOff>65520</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>69120</xdr:colOff>
-      <xdr:row>136</xdr:row>
-      <xdr:rowOff>169200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="AutoShape 22"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="2582640" y="23725800"/>
-          <a:ext cx="1207440" cy="617760"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:rect l="l" t="t" r="r" b="b"/>
-          <a:pathLst>
-            <a:path w="21600" h="21600">
-              <a:moveTo>
-                <a:pt x="0" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="21600" y="21600"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
-    <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>133200</xdr:colOff>
       <xdr:row>126</xdr:row>
@@ -1939,19 +1772,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>121320</xdr:colOff>
+      <xdr:colOff>120600</xdr:colOff>
       <xdr:row>141</xdr:row>
-      <xdr:rowOff>83160</xdr:rowOff>
+      <xdr:rowOff>82440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rectangle 25"/>
+        <xdr:cNvPr id="1" name="Rectangle 25"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2365920" y="22507560"/>
-          <a:ext cx="2778840" cy="2607480"/>
+          <a:ext cx="2778120" cy="2606760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1983,19 +1816,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>73800</xdr:colOff>
+      <xdr:colOff>73080</xdr:colOff>
       <xdr:row>127</xdr:row>
-      <xdr:rowOff>26280</xdr:rowOff>
+      <xdr:rowOff>25560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Rectangle 4459"/>
+        <xdr:cNvPr id="2" name="Rectangle 4459"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3165480" y="22231440"/>
-          <a:ext cx="1187640" cy="426240"/>
+          <a:ext cx="1186920" cy="425520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2034,7 +1867,7 @@
               <a:latin typeface="Arial"/>
               <a:ea typeface="ＭＳ Ｐゴシック"/>
             </a:rPr>
-            <a:t>Màn hình thêm sản phẩm</a:t>
+            <a:t>Màn hình menu bar </a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1050" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
@@ -2053,19 +1886,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>64080</xdr:colOff>
+      <xdr:colOff>63360</xdr:colOff>
       <xdr:row>132</xdr:row>
-      <xdr:rowOff>92880</xdr:rowOff>
+      <xdr:rowOff>92160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Text Box 4320"/>
+        <xdr:cNvPr id="3" name="Text Box 4320"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="372240" y="23184000"/>
-          <a:ext cx="994320" cy="397440"/>
+          <a:ext cx="993600" cy="396720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2147,7 +1980,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Line 4328"/>
+        <xdr:cNvPr id="4" name="Line 4328"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2190,7 +2023,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Line 4328"/>
+        <xdr:cNvPr id="5" name="Line 4328"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2227,19 +2060,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>178200</xdr:colOff>
+      <xdr:colOff>177480</xdr:colOff>
       <xdr:row>135</xdr:row>
-      <xdr:rowOff>16560</xdr:rowOff>
+      <xdr:rowOff>15840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Text Box 4324"/>
+        <xdr:cNvPr id="6" name="Text Box 4324"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6335280" y="23621760"/>
-          <a:ext cx="912960" cy="397800"/>
+          <a:ext cx="912240" cy="397080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2295,13 +2128,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>83160</xdr:colOff>
+      <xdr:colOff>82440</xdr:colOff>
       <xdr:row>133</xdr:row>
-      <xdr:rowOff>64080</xdr:rowOff>
+      <xdr:rowOff>63360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 6" descr=""/>
+        <xdr:cNvPr id="7" name="Picture 6" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2311,7 +2144,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6478200" y="22755240"/>
-          <a:ext cx="675000" cy="969120"/>
+          <a:ext cx="674280" cy="968400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2321,134 +2154,6 @@
         </a:ln>
       </xdr:spPr>
     </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>84240</xdr:colOff>
-      <xdr:row>133</xdr:row>
-      <xdr:rowOff>30600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>67320</xdr:colOff>
-      <xdr:row>136</xdr:row>
-      <xdr:rowOff>113760</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="AutoShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="3804840" y="23690520"/>
-          <a:ext cx="727560" cy="597240"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:rect l="l" t="t" r="r" b="b"/>
-          <a:pathLst>
-            <a:path w="21600" h="21600">
-              <a:moveTo>
-                <a:pt x="0" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="21600" y="21600"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>101520</xdr:colOff>
-      <xdr:row>136</xdr:row>
-      <xdr:rowOff>40680</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>126360</xdr:colOff>
-      <xdr:row>139</xdr:row>
-      <xdr:rowOff>171360</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="AutoShape 2"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4008600" y="24215040"/>
-          <a:ext cx="955080" cy="645120"/>
-        </a:xfrm>
-        <a:prstGeom prst="can">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 25000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" lIns="27360" rIns="27360" tIns="18360" bIns="18360" anchor="ctr" upright="1">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:p>
-          <a:pPr algn="ctr">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1000" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman"/>
-            </a:rPr>
-            <a:t>Product </a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1000" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2465,19 +2170,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>92880</xdr:colOff>
+      <xdr:colOff>92160</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>150120</xdr:rowOff>
+      <xdr:rowOff>149400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="Rectangle 1"/>
+        <xdr:cNvPr id="8" name="Rectangle 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1788840" y="1457280"/>
-          <a:ext cx="4816080" cy="416880"/>
+          <a:ext cx="4815360" cy="416160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2513,13 +2218,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>99000</xdr:colOff>
+      <xdr:colOff>98280</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>138960</xdr:rowOff>
+      <xdr:rowOff>138240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Image 1" descr=""/>
+        <xdr:cNvPr id="9" name="Image 1" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2529,7 +2234,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1332720" y="1348200"/>
-          <a:ext cx="2115360" cy="3943800"/>
+          <a:ext cx="2114640" cy="3943080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2551,7 +2256,7 @@
   </sheetPr>
   <dimension ref="A1:AX160"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A103" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A14" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C86" activeCellId="0" sqref="C86"/>
     </sheetView>
   </sheetViews>
@@ -6406,9 +6111,7 @@
     <row r="87" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="17"/>
       <c r="B87" s="59"/>
-      <c r="C87" s="60" t="s">
-        <v>38</v>
-      </c>
+      <c r="C87" s="60"/>
       <c r="D87" s="19"/>
       <c r="E87" s="19"/>
       <c r="F87" s="19"/>
@@ -6459,9 +6162,7 @@
     <row r="88" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="17"/>
       <c r="B88" s="59"/>
-      <c r="C88" s="60" t="s">
-        <v>39</v>
-      </c>
+      <c r="C88" s="60"/>
       <c r="D88" s="19"/>
       <c r="E88" s="19"/>
       <c r="F88" s="19"/>
@@ -6562,7 +6263,7 @@
     <row r="90" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="17"/>
       <c r="B90" s="28" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C90" s="19"/>
       <c r="D90" s="19"/>
@@ -6616,7 +6317,7 @@
       <c r="A91" s="17"/>
       <c r="B91" s="63"/>
       <c r="C91" s="19" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D91" s="64"/>
       <c r="E91" s="64"/>
@@ -6718,7 +6419,7 @@
     <row r="93" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="17"/>
       <c r="B93" s="28" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C93" s="19"/>
       <c r="D93" s="61"/>
@@ -6772,7 +6473,7 @@
       <c r="A94" s="17"/>
       <c r="B94" s="63"/>
       <c r="C94" s="19" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D94" s="62"/>
       <c r="E94" s="61"/>
@@ -6865,7 +6566,7 @@
     <row r="96" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="17"/>
       <c r="B96" s="28" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C96" s="19"/>
       <c r="D96" s="64"/>
@@ -6919,7 +6620,7 @@
       <c r="A97" s="17"/>
       <c r="B97" s="28"/>
       <c r="C97" s="19" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D97" s="64"/>
       <c r="E97" s="61"/>
@@ -7022,7 +6723,7 @@
     <row r="99" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="17"/>
       <c r="B99" s="28" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C99" s="19"/>
       <c r="D99" s="64"/>
@@ -7077,7 +6778,7 @@
       <c r="A100" s="17"/>
       <c r="B100" s="28"/>
       <c r="C100" s="19" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D100" s="64"/>
       <c r="E100" s="19"/>
@@ -8266,7 +7967,7 @@
       <c r="Y123" s="13"/>
       <c r="Z123" s="13"/>
       <c r="AA123" s="14" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="AB123" s="14"/>
       <c r="AC123" s="14"/>
@@ -8282,7 +7983,7 @@
       <c r="AK123" s="15"/>
       <c r="AL123" s="15"/>
       <c r="AM123" s="16" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="AN123" s="16"/>
       <c r="AO123" s="16"/>
@@ -8349,7 +8050,7 @@
     <row r="125" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="17"/>
       <c r="B125" s="59" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C125" s="19"/>
       <c r="D125" s="19"/>
@@ -9266,7 +8967,7 @@
     <row r="143" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="17"/>
       <c r="B143" s="71" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C143" s="19"/>
       <c r="D143" s="19"/>
@@ -9423,14 +9124,14 @@
       <c r="B146" s="28"/>
       <c r="C146" s="19"/>
       <c r="D146" s="72" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E146" s="72" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F146" s="72"/>
       <c r="G146" s="72" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H146" s="72"/>
       <c r="I146" s="72"/>
@@ -9447,11 +9148,11 @@
       <c r="T146" s="72"/>
       <c r="U146" s="72"/>
       <c r="V146" s="72" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="W146" s="72"/>
       <c r="X146" s="73" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="Y146" s="73"/>
       <c r="Z146" s="73"/>
@@ -9486,20 +9187,14 @@
       <c r="D147" s="74" t="n">
         <v>1</v>
       </c>
-      <c r="E147" s="74" t="s">
-        <v>54</v>
-      </c>
+      <c r="E147" s="74"/>
       <c r="F147" s="74"/>
-      <c r="G147" s="75" t="s">
-        <v>55</v>
-      </c>
+      <c r="G147" s="75"/>
       <c r="H147" s="76"/>
       <c r="I147" s="76"/>
       <c r="J147" s="76"/>
       <c r="K147" s="77"/>
-      <c r="L147" s="78" t="s">
-        <v>56</v>
-      </c>
+      <c r="L147" s="78"/>
       <c r="M147" s="76"/>
       <c r="N147" s="76"/>
       <c r="O147" s="76"/>
@@ -9509,9 +9204,7 @@
       <c r="S147" s="76"/>
       <c r="T147" s="76"/>
       <c r="U147" s="79"/>
-      <c r="V147" s="74" t="s">
-        <v>57</v>
-      </c>
+      <c r="V147" s="74"/>
       <c r="W147" s="74"/>
       <c r="X147" s="75"/>
       <c r="Y147" s="76"/>
@@ -9547,20 +9240,14 @@
       <c r="D148" s="80" t="n">
         <v>2</v>
       </c>
-      <c r="E148" s="81" t="s">
-        <v>58</v>
-      </c>
+      <c r="E148" s="81"/>
       <c r="F148" s="82"/>
-      <c r="G148" s="83" t="s">
-        <v>59</v>
-      </c>
+      <c r="G148" s="83"/>
       <c r="H148" s="84"/>
       <c r="I148" s="84"/>
       <c r="J148" s="84"/>
       <c r="K148" s="85"/>
-      <c r="L148" s="86" t="s">
-        <v>60</v>
-      </c>
+      <c r="L148" s="86"/>
       <c r="M148" s="84"/>
       <c r="N148" s="84"/>
       <c r="O148" s="84"/>
@@ -9570,9 +9257,7 @@
       <c r="S148" s="84"/>
       <c r="T148" s="84"/>
       <c r="U148" s="87"/>
-      <c r="V148" s="81" t="s">
-        <v>52</v>
-      </c>
+      <c r="V148" s="81"/>
       <c r="W148" s="82"/>
       <c r="X148" s="83"/>
       <c r="Y148" s="84"/>
@@ -10080,7 +9765,7 @@
       <c r="C158" s="19"/>
       <c r="D158" s="19"/>
       <c r="E158" s="24" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="F158" s="19"/>
       <c r="G158" s="19"/>
@@ -10456,7 +10141,7 @@
   </sheetPr>
   <dimension ref="A1:AMJ172"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="AA160" activeCellId="0" sqref="AA160"/>
     </sheetView>
   </sheetViews>
@@ -10525,7 +10210,7 @@
       </c>
       <c r="AN1" s="6"/>
       <c r="AO1" s="7" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="AP1" s="7"/>
       <c r="AQ1" s="7"/>
@@ -10706,7 +10391,7 @@
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="17"/>
       <c r="B5" s="59" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="AM5" s="19"/>
       <c r="AN5" s="19"/>
@@ -11170,7 +10855,7 @@
       </c>
       <c r="AN41" s="6"/>
       <c r="AO41" s="7" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="AP41" s="7"/>
       <c r="AQ41" s="7"/>
@@ -11307,7 +10992,7 @@
     <row r="45" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="17"/>
       <c r="B45" s="59" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C45" s="19"/>
       <c r="D45" s="19"/>
@@ -11340,7 +11025,7 @@
     <row r="47" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="17"/>
       <c r="C47" s="9" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="AM47" s="19"/>
       <c r="AN47" s="19"/>
@@ -11355,10 +11040,10 @@
     <row r="48" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="17"/>
       <c r="C48" s="72" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D48" s="72" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="E48" s="72"/>
       <c r="F48" s="72"/>
@@ -11366,39 +11051,39 @@
       <c r="H48" s="72"/>
       <c r="I48" s="72"/>
       <c r="J48" s="104" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="K48" s="104"/>
       <c r="L48" s="104"/>
       <c r="M48" s="104"/>
       <c r="N48" s="104" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="O48" s="104"/>
       <c r="P48" s="104"/>
       <c r="Q48" s="72" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="R48" s="72"/>
       <c r="S48" s="72"/>
       <c r="T48" s="72" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="U48" s="72"/>
       <c r="V48" s="73" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="W48" s="73"/>
       <c r="X48" s="73"/>
       <c r="Y48" s="73"/>
       <c r="Z48" s="105" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="AA48" s="105"/>
       <c r="AB48" s="105"/>
       <c r="AC48" s="105"/>
       <c r="AD48" s="73" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="AE48" s="73"/>
       <c r="AF48" s="73"/>
@@ -11683,7 +11368,7 @@
     <row r="55" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="17"/>
       <c r="C55" s="19" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D55" s="19"/>
       <c r="E55" s="19"/>
@@ -11734,10 +11419,10 @@
     <row r="56" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="17"/>
       <c r="C56" s="142" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D56" s="72" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="E56" s="72"/>
       <c r="F56" s="72"/>
@@ -11749,7 +11434,7 @@
       <c r="L56" s="72"/>
       <c r="M56" s="72"/>
       <c r="N56" s="143" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="O56" s="143"/>
       <c r="P56" s="143"/>
@@ -11761,7 +11446,7 @@
       <c r="V56" s="143"/>
       <c r="W56" s="143"/>
       <c r="X56" s="73" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="Y56" s="73"/>
       <c r="Z56" s="73"/>
@@ -11795,7 +11480,7 @@
         <v>1</v>
       </c>
       <c r="D57" s="145" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="E57" s="97"/>
       <c r="F57" s="97"/>
@@ -11807,7 +11492,7 @@
       <c r="L57" s="97"/>
       <c r="M57" s="146"/>
       <c r="N57" s="147" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="O57" s="148"/>
       <c r="P57" s="148"/>
@@ -11851,7 +11536,7 @@
         <v>2</v>
       </c>
       <c r="D58" s="152" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="E58" s="153"/>
       <c r="F58" s="153"/>
@@ -11863,7 +11548,7 @@
       <c r="L58" s="153"/>
       <c r="M58" s="154"/>
       <c r="N58" s="152" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="O58" s="153"/>
       <c r="P58" s="153"/>
@@ -11907,7 +11592,7 @@
         <v>3</v>
       </c>
       <c r="D59" s="156" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="E59" s="157"/>
       <c r="F59" s="157"/>
@@ -12059,7 +11744,7 @@
       <c r="A62" s="17"/>
       <c r="B62" s="28"/>
       <c r="C62" s="19" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="D62" s="19"/>
       <c r="E62" s="19"/>
@@ -12111,10 +11796,10 @@
       <c r="A63" s="17"/>
       <c r="B63" s="28"/>
       <c r="C63" s="142" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D63" s="72" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="E63" s="72"/>
       <c r="F63" s="72"/>
@@ -12126,7 +11811,7 @@
       <c r="L63" s="72"/>
       <c r="M63" s="72"/>
       <c r="N63" s="143" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="O63" s="143"/>
       <c r="P63" s="143"/>
@@ -12138,7 +11823,7 @@
       <c r="V63" s="143"/>
       <c r="W63" s="143"/>
       <c r="X63" s="73" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="Y63" s="73"/>
       <c r="Z63" s="73"/>
@@ -13124,7 +12809,7 @@
       </c>
       <c r="AN82" s="6"/>
       <c r="AO82" s="7" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="AP82" s="7"/>
       <c r="AQ82" s="7"/>
@@ -13270,7 +12955,7 @@
     <row r="86" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="17"/>
       <c r="B86" s="59" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="D86" s="19"/>
       <c r="E86" s="19"/>
@@ -13303,7 +12988,7 @@
     <row r="87" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="17"/>
       <c r="C87" s="9" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="D87" s="19"/>
       <c r="E87" s="19"/>
@@ -13336,7 +13021,7 @@
     <row r="88" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="17"/>
       <c r="D88" s="19" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="E88" s="19"/>
       <c r="F88" s="19"/>
@@ -13398,7 +13083,7 @@
     <row r="90" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="17"/>
       <c r="C90" s="9" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="D90" s="19"/>
       <c r="E90" s="19"/>
@@ -13431,7 +13116,7 @@
     <row r="91" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="17"/>
       <c r="D91" s="19" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="E91" s="19"/>
       <c r="F91" s="19"/>
@@ -13463,7 +13148,7 @@
     <row r="92" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="17"/>
       <c r="D92" s="19" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="E92" s="19"/>
       <c r="F92" s="19"/>
@@ -13555,7 +13240,7 @@
     <row r="95" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="17"/>
       <c r="C95" s="9" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="D95" s="19"/>
       <c r="E95" s="19"/>
@@ -13588,7 +13273,7 @@
     <row r="96" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="17"/>
       <c r="D96" s="19" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="E96" s="19"/>
       <c r="F96" s="19"/>
@@ -13620,7 +13305,7 @@
     <row r="97" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="17"/>
       <c r="D97" s="19" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="E97" s="19"/>
       <c r="F97" s="19"/>
@@ -13682,7 +13367,7 @@
     <row r="99" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="17"/>
       <c r="C99" s="9" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="D99" s="19"/>
       <c r="E99" s="19"/>
@@ -13715,7 +13400,7 @@
     <row r="100" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="17"/>
       <c r="D100" s="19" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="E100" s="19"/>
       <c r="F100" s="19"/>
@@ -13747,7 +13432,7 @@
     <row r="101" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="17"/>
       <c r="D101" s="19" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="E101" s="19"/>
       <c r="F101" s="19"/>
@@ -14430,7 +14115,7 @@
       </c>
       <c r="AN122" s="6"/>
       <c r="AO122" s="7" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="AP122" s="7"/>
       <c r="AQ122" s="7"/>
@@ -14592,7 +14277,7 @@
     <row r="126" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="17"/>
       <c r="B126" s="59" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="D126" s="19"/>
       <c r="E126" s="19"/>
@@ -14625,7 +14310,7 @@
     <row r="127" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="17"/>
       <c r="C127" s="9" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="D127" s="19"/>
       <c r="E127" s="19"/>
@@ -14658,7 +14343,7 @@
     <row r="128" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="17"/>
       <c r="D128" s="19" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="E128" s="19"/>
       <c r="F128" s="19"/>
@@ -14690,7 +14375,7 @@
     <row r="129" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="17"/>
       <c r="C129" s="9" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="AM129" s="19"/>
       <c r="AN129" s="19"/>
@@ -14705,10 +14390,10 @@
     <row r="130" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="17"/>
       <c r="C130" s="72" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D130" s="72" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="E130" s="72"/>
       <c r="F130" s="72"/>
@@ -14716,39 +14401,39 @@
       <c r="H130" s="72"/>
       <c r="I130" s="72"/>
       <c r="J130" s="104" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="K130" s="104"/>
       <c r="L130" s="104"/>
       <c r="M130" s="104"/>
       <c r="N130" s="104" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="O130" s="104"/>
       <c r="P130" s="104"/>
       <c r="Q130" s="72" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="R130" s="72"/>
       <c r="S130" s="72"/>
       <c r="T130" s="72" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="U130" s="72"/>
       <c r="V130" s="73" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="W130" s="73"/>
       <c r="X130" s="73"/>
       <c r="Y130" s="73"/>
       <c r="Z130" s="105" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="AA130" s="105"/>
       <c r="AB130" s="105"/>
       <c r="AC130" s="105"/>
       <c r="AD130" s="73" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="AE130" s="73"/>
       <c r="AF130" s="73"/>
@@ -15391,7 +15076,7 @@
     <row r="137" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="17"/>
       <c r="C137" s="19" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D137" s="19"/>
       <c r="E137" s="19"/>
@@ -15494,10 +15179,10 @@
     <row r="138" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="17"/>
       <c r="C138" s="142" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D138" s="72" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="E138" s="72"/>
       <c r="F138" s="72"/>
@@ -15509,7 +15194,7 @@
       <c r="L138" s="72"/>
       <c r="M138" s="72"/>
       <c r="N138" s="143" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="O138" s="143"/>
       <c r="P138" s="143"/>
@@ -15521,7 +15206,7 @@
       <c r="V138" s="143"/>
       <c r="W138" s="143"/>
       <c r="X138" s="73" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="Y138" s="73"/>
       <c r="Z138" s="73"/>
@@ -15607,7 +15292,7 @@
         <v>1</v>
       </c>
       <c r="D139" s="145" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="E139" s="97"/>
       <c r="F139" s="97"/>
@@ -15619,7 +15304,7 @@
       <c r="L139" s="97"/>
       <c r="M139" s="146"/>
       <c r="N139" s="147" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="O139" s="148"/>
       <c r="P139" s="148"/>
@@ -15715,7 +15400,7 @@
         <v>2</v>
       </c>
       <c r="D140" s="152" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="E140" s="153"/>
       <c r="F140" s="153"/>
@@ -15727,7 +15412,7 @@
       <c r="L140" s="153"/>
       <c r="M140" s="154"/>
       <c r="N140" s="152" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="O140" s="153"/>
       <c r="P140" s="153"/>
@@ -15823,7 +15508,7 @@
         <v>3</v>
       </c>
       <c r="D141" s="156" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="E141" s="157"/>
       <c r="F141" s="157"/>
@@ -16076,7 +15761,7 @@
     <row r="144" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="17"/>
       <c r="C144" s="19" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="D144" s="19"/>
       <c r="E144" s="19"/>
@@ -16127,10 +15812,10 @@
     <row r="145" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A145" s="17"/>
       <c r="C145" s="142" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D145" s="72" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="E145" s="72"/>
       <c r="F145" s="72"/>
@@ -16142,7 +15827,7 @@
       <c r="L145" s="72"/>
       <c r="M145" s="72"/>
       <c r="N145" s="143" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="O145" s="143"/>
       <c r="P145" s="143"/>
@@ -16154,7 +15839,7 @@
       <c r="V145" s="143"/>
       <c r="W145" s="143"/>
       <c r="X145" s="73" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="Y145" s="73"/>
       <c r="Z145" s="73"/>
@@ -16489,7 +16174,7 @@
       <c r="B150" s="59"/>
       <c r="C150" s="9"/>
       <c r="AC150" s="1" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AW150" s="20"/>
       <c r="AKN150" s="0"/>
@@ -16601,7 +16286,7 @@
       <c r="A152" s="17"/>
       <c r="B152" s="59"/>
       <c r="C152" s="9" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="D152" s="141"/>
       <c r="E152" s="19"/>
@@ -16800,7 +16485,7 @@
     <row r="154" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A154" s="17"/>
       <c r="C154" s="9" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="D154" s="19"/>
       <c r="E154" s="0"/>
@@ -17102,7 +16787,7 @@
     <row r="157" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A157" s="17"/>
       <c r="C157" s="9" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="D157" s="170"/>
       <c r="E157" s="0"/>
